--- a/Day20/NF.xlsx
+++ b/Day20/NF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Corp\GenSpark\Celsior\Participants\Day20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E39913DA-7A6B-4DE2-ADF3-F051202C736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC404E33-F1A5-4111-9A31-464FDB7FE2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{576C70FA-102F-480E-93B5-7D4B44490A92}"/>
   </bookViews>
@@ -201,6 +201,191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16042</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44116</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>124326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FC2131-9F59-9443-D368-8B42ECF53617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2622884" y="1515979"/>
+          <a:ext cx="637674" cy="84221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>240632</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>356937</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8021</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Up 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2236DA-697D-0C66-638D-B74B6DC16C9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="240632" y="2221832"/>
+          <a:ext cx="116305" cy="553452"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>278731</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>72192</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Up 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B185F7B5-3B14-1414-860D-3AA01E5DD462}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1742573" y="1943100"/>
+          <a:ext cx="82219" cy="1790703"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F688012-D1D4-4FA0-907A-E0FD0AB20CE3}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,5 +1019,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>